--- a/src/test/java/com/saucedemo/testData/TestData.xlsx
+++ b/src/test/java/com/saucedemo/testData/TestData.xlsx
@@ -43,10 +43,10 @@
     <t xml:space="preserve">Wrong-user</t>
   </si>
   <si>
+    <t xml:space="preserve">invalid</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wrong_pwd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invalid</t>
   </si>
 </sst>
 </file>
@@ -147,7 +147,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -187,7 +187,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -195,10 +195,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
